--- a/wide/synthetic_dataset_1.xlsx
+++ b/wide/synthetic_dataset_1.xlsx
@@ -11,14 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>not a date</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,12 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -380,320 +369,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:32">
       <c r="A1" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45885</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45892</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45899</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45906</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45913</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45920</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45927</v>
+      </c>
+      <c r="J1" s="1">
+        <v>45934</v>
+      </c>
+      <c r="K1" s="1">
         <v>45941</v>
       </c>
-      <c r="B1" s="1">
+      <c r="L1" s="1">
         <v>45948</v>
       </c>
-      <c r="C1" s="1">
+      <c r="M1" s="1">
         <v>45955</v>
       </c>
-      <c r="D1" s="1">
+      <c r="N1" s="1">
         <v>45962</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="O1" s="1">
+        <v>45969</v>
+      </c>
+      <c r="P1" s="1">
         <v>45976</v>
       </c>
-      <c r="G1" s="1">
+      <c r="Q1" s="1">
         <v>45983</v>
       </c>
-      <c r="H1" s="1">
+      <c r="R1" s="1">
         <v>45990</v>
       </c>
-      <c r="I1" s="1">
+      <c r="S1" s="1">
         <v>45997</v>
       </c>
-      <c r="J1" s="1">
+      <c r="T1" s="1">
         <v>46004</v>
       </c>
-      <c r="K1" s="1">
+      <c r="U1" s="1">
         <v>46011</v>
       </c>
-      <c r="L1" s="1">
+      <c r="V1" s="1">
         <v>46018</v>
       </c>
-      <c r="M1" s="1">
+      <c r="W1" s="1">
         <v>46025</v>
       </c>
-      <c r="N1" s="1">
+      <c r="X1" s="1">
         <v>46032</v>
       </c>
-      <c r="O1" s="1">
+      <c r="Y1" s="1">
         <v>46039</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Z1" s="1">
         <v>46046</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="AA1" s="1">
         <v>46053</v>
       </c>
-      <c r="R1" s="1">
+      <c r="AB1" s="1">
         <v>46060</v>
       </c>
-      <c r="S1" s="1">
+      <c r="AC1" s="1">
         <v>46067</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>0</v>
+      <c r="AD1" s="1">
+        <v>46074</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>46081</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>46088</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:32">
       <c r="A2">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="B2">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C2">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="E2">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="F2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G2">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="H2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="I2">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="K2">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="L2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="M2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="N2">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="O2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="P2">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="Q2">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="R2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="S2">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="T2">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="U2">
+        <v>95</v>
+      </c>
+      <c r="V2">
+        <v>52</v>
+      </c>
+      <c r="W2">
+        <v>80</v>
+      </c>
+      <c r="X2">
+        <v>123</v>
+      </c>
+      <c r="Y2">
+        <v>167</v>
+      </c>
+      <c r="Z2">
+        <v>84</v>
+      </c>
+      <c r="AA2">
+        <v>180</v>
+      </c>
+      <c r="AB2">
+        <v>58</v>
+      </c>
+      <c r="AC2">
+        <v>150</v>
+      </c>
+      <c r="AD2">
+        <v>50</v>
+      </c>
+      <c r="AE2">
+        <v>174</v>
+      </c>
+      <c r="AF2">
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:32">
       <c r="A3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="AC3">
+        <v>4</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="AF3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4">
+        <v>139</v>
+      </c>
+      <c r="B4">
+        <v>172</v>
+      </c>
+      <c r="C4">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <v>136</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>195</v>
+      </c>
+      <c r="H4">
+        <v>122</v>
+      </c>
+      <c r="I4">
+        <v>169</v>
+      </c>
+      <c r="J4">
+        <v>197</v>
+      </c>
+      <c r="K4">
+        <v>122</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+      <c r="M4">
+        <v>73</v>
+      </c>
+      <c r="N4">
+        <v>90</v>
+      </c>
+      <c r="O4">
+        <v>139</v>
+      </c>
+      <c r="P4">
+        <v>77</v>
+      </c>
+      <c r="Q4">
+        <v>151</v>
+      </c>
+      <c r="R4">
+        <v>88</v>
+      </c>
+      <c r="S4">
+        <v>51</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>141</v>
+      </c>
+      <c r="V4">
+        <v>146</v>
+      </c>
+      <c r="W4">
+        <v>194</v>
+      </c>
+      <c r="X4">
+        <v>128</v>
+      </c>
+      <c r="Y4">
+        <v>181</v>
+      </c>
+      <c r="Z4">
+        <v>110</v>
+      </c>
+      <c r="AA4">
+        <v>174</v>
+      </c>
+      <c r="AB4">
+        <v>82</v>
+      </c>
+      <c r="AC4">
+        <v>115</v>
+      </c>
+      <c r="AD4">
+        <v>132</v>
+      </c>
+      <c r="AE4">
+        <v>181</v>
+      </c>
+      <c r="AF4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-      <c r="R3">
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>4</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
-        <v>123</v>
-      </c>
-      <c r="B4">
-        <v>103</v>
-      </c>
-      <c r="C4">
-        <v>88</v>
-      </c>
-      <c r="D4">
-        <v>84</v>
-      </c>
-      <c r="E4">
-        <v>193</v>
-      </c>
-      <c r="F4">
-        <v>102</v>
-      </c>
-      <c r="G4">
-        <v>83</v>
-      </c>
-      <c r="H4">
-        <v>156</v>
-      </c>
-      <c r="I4">
-        <v>123</v>
-      </c>
-      <c r="J4">
-        <v>181</v>
-      </c>
-      <c r="K4">
-        <v>99</v>
-      </c>
-      <c r="L4">
-        <v>136</v>
-      </c>
-      <c r="M4">
-        <v>146</v>
-      </c>
-      <c r="N4">
-        <v>119</v>
-      </c>
-      <c r="O4">
-        <v>163</v>
-      </c>
-      <c r="P4">
-        <v>70</v>
-      </c>
-      <c r="Q4">
-        <v>123</v>
-      </c>
-      <c r="R4">
-        <v>193</v>
-      </c>
-      <c r="S4">
-        <v>180</v>
-      </c>
-      <c r="T4">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>10</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>3</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>9</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
